--- a/config_debug/fish_3d_zhuanpan_config.xlsx
+++ b/config_debug/fish_3d_zhuanpan_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_3D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -196,7 +196,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -219,6 +219,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -498,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -511,7 +514,7 @@
     <col min="5" max="5" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -528,7 +531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -544,8 +547,9 @@
       <c r="E2" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -561,8 +565,9 @@
       <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -578,8 +583,9 @@
       <c r="E4" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -595,8 +601,9 @@
       <c r="E5" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -612,8 +619,9 @@
       <c r="E6" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -629,8 +637,9 @@
       <c r="E7" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -646,8 +655,9 @@
       <c r="E8" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -663,8 +673,9 @@
       <c r="E9" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -680,6 +691,9 @@
       <c r="E10" s="7" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G11" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/config_debug/fish_3d_zhuanpan_config.xlsx
+++ b/config_debug/fish_3d_zhuanpan_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>item|物品id</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -45,50 +45,38 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>ls_icon_jb1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ls_icon_jb2</t>
-  </si>
-  <si>
     <t>num|当前炮倍数</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>150</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>120</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>85</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>95</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>110</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>88</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>90</t>
+    <t>pay_icon_gold10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_icon_gold10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_icon_gold9</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_icon_gold9</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_icon_gold9</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_icon_gold8</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_icon_gold7</t>
+  </si>
+  <si>
+    <t>pay_icon_gold7</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -196,7 +184,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -213,9 +201,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -501,20 +486,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="16.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -522,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -531,169 +516,197 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>12</v>
+      <c r="C2" s="7">
+        <v>250</v>
       </c>
       <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7">
+        <v>260</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>16</v>
+      <c r="C4" s="7">
+        <v>270</v>
       </c>
       <c r="D4">
-        <v>20</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>17</v>
+      <c r="C5" s="7">
+        <v>280</v>
       </c>
       <c r="D5">
         <v>20</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>14</v>
+      <c r="C6" s="7">
+        <v>300</v>
       </c>
       <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>11</v>
+      <c r="C7" s="7">
+        <v>330</v>
       </c>
       <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>15</v>
+      <c r="C8" s="7">
+        <v>350</v>
       </c>
       <c r="D8">
         <v>10</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>10</v>
+      <c r="C9" s="7">
+        <v>400</v>
       </c>
       <c r="D9">
-        <v>10</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>9</v>
+      <c r="C10" s="7">
+        <v>500</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G11" s="8"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G11" s="7"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/config_debug/fish_3d_zhuanpan_config.xlsx
+++ b/config_debug/fish_3d_zhuanpan_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>item|物品id</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -49,34 +49,38 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>pay_icon_gold10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_icon_gold10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_icon_gold9</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_icon_gold9</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_icon_gold9</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_icon_gold8</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_icon_gold7</t>
-  </si>
-  <si>
-    <t>pay_icon_gold7</t>
+    <t>3dby_icon_yu47</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu22</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu25</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu21</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu37</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu38</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu40</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -184,7 +188,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -207,6 +211,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -489,7 +499,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -524,13 +534,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="7">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G2" s="7"/>
     </row>
@@ -541,14 +551,14 @@
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7">
-        <v>260</v>
+      <c r="C3" s="9">
+        <v>300</v>
       </c>
       <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="G3" s="7"/>
     </row>
@@ -560,10 +570,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="7">
-        <v>270</v>
+        <v>400</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>12</v>
@@ -578,14 +588,14 @@
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7">
-        <v>280</v>
+      <c r="C5" s="9">
+        <v>160</v>
       </c>
       <c r="D5">
-        <v>20</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="G5" s="7"/>
     </row>
@@ -596,14 +606,14 @@
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
-        <v>300</v>
+      <c r="C6" s="9">
+        <v>200</v>
       </c>
       <c r="D6">
-        <v>20</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G6" s="7"/>
     </row>
@@ -614,14 +624,14 @@
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="7">
-        <v>330</v>
+      <c r="C7" s="9">
+        <v>300</v>
       </c>
       <c r="D7">
         <v>15</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>10</v>
+      <c r="E7" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="G7" s="7"/>
     </row>
@@ -633,13 +643,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="7">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" s="7"/>
     </row>
@@ -651,13 +661,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="7">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G9" s="7"/>
     </row>
@@ -669,43 +679,42 @@
         <v>2</v>
       </c>
       <c r="C10" s="7">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G11" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C14" s="7"/>
-    </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="6"/>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C19" s="7"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C20" s="7"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C21" s="7"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C22" s="7"/>
     </row>
   </sheetData>
